--- a/GDPR_Articles_Recitals_Links.xlsx
+++ b/GDPR_Articles_Recitals_Links.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huai/Documents/NCU/WIDM/CCG/AAS_AIAlignmentSystem/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA75314-1A36-4747-AEA5-F1141639476D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Article &amp; Recitals" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="995">
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -2999,17 +3002,21 @@
   </si>
   <si>
     <t>['1This Regulation should apply to all matters concerning the protection of fundamental rights and freedoms vis-à-vis the processing of personal data which are not subject to specific obligations with the same objective set out in Directive 2002/58/EC of the European Parliament and of the Council¹, including the obligations on the controller and the rights of natural persons. 2In order to clarify the relationship between this Regulation and Directive 2002/58/EC, that Directive should be amended accordingly. 3Once this Regulation is adopted, Directive 2002/58/EC should be reviewed in particular in order to ensure consistency with this Regulation,', '¹ Directive 2002/58/EC of the European Parliament and of the Council of 12 July 2002 concerning the processing of personal data and the protection of privacy in the electronic communications sector (Directive on privacy and electronic communications) (OJ L 201, 31.7.2002, p. 37).', '* This title is an unofficial description.']</t>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3017,7 +3024,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3027,6 +3034,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3076,18 +3090,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3125,7 +3147,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3159,6 +3181,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3193,9 +3216,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3368,4928 +3392,4929 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D3" t="s">
         <v>452</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D4" t="s">
         <v>453</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" t="s">
         <v>454</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" t="s">
         <v>455</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D7" t="s">
         <v>456</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C7" t="s">
-        <v>450</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" t="s">
         <v>457</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C8" t="s">
-        <v>450</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" t="s">
         <v>458</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>449</v>
+      </c>
+      <c r="D10" t="s">
         <v>459</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C10" t="s">
-        <v>450</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D11" t="s">
         <v>460</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C11" t="s">
-        <v>450</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D12" t="s">
         <v>461</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>449</v>
+      </c>
+      <c r="D13" t="s">
         <v>462</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C13" t="s">
-        <v>450</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D14" t="s">
         <v>463</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C14" t="s">
-        <v>450</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D15" t="s">
         <v>464</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C15" t="s">
-        <v>450</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>449</v>
+      </c>
+      <c r="D16" t="s">
         <v>465</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C16" t="s">
-        <v>450</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D17" t="s">
         <v>466</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C17" t="s">
-        <v>450</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>449</v>
+      </c>
+      <c r="D18" t="s">
         <v>467</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C18" t="s">
-        <v>450</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>449</v>
+      </c>
+      <c r="D19" t="s">
         <v>468</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C19" t="s">
-        <v>450</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>449</v>
+      </c>
+      <c r="D20" t="s">
         <v>469</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C20" t="s">
-        <v>450</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s">
+        <v>449</v>
+      </c>
+      <c r="D21" t="s">
         <v>470</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>449</v>
+      </c>
+      <c r="D22" t="s">
         <v>471</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C22" t="s">
-        <v>450</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>449</v>
+      </c>
+      <c r="D23" t="s">
         <v>472</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C23" t="s">
-        <v>450</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D24" t="s">
         <v>473</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C24" t="s">
-        <v>450</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>449</v>
+      </c>
+      <c r="D25" t="s">
         <v>474</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C25" t="s">
-        <v>450</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s">
+        <v>449</v>
+      </c>
+      <c r="D26" t="s">
         <v>475</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C26" t="s">
-        <v>450</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C27" t="s">
+        <v>449</v>
+      </c>
+      <c r="D27" t="s">
         <v>476</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C27" t="s">
-        <v>450</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
+        <v>449</v>
+      </c>
+      <c r="D28" t="s">
         <v>477</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C28" t="s">
-        <v>450</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>449</v>
+      </c>
+      <c r="D29" t="s">
         <v>478</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C29" t="s">
-        <v>450</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
+        <v>449</v>
+      </c>
+      <c r="D30" t="s">
         <v>479</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C30" t="s">
-        <v>450</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C31" t="s">
+        <v>449</v>
+      </c>
+      <c r="D31" t="s">
         <v>480</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C31" t="s">
-        <v>450</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
+        <v>449</v>
+      </c>
+      <c r="D32" t="s">
         <v>481</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C32" t="s">
-        <v>450</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
+        <v>449</v>
+      </c>
+      <c r="D33" t="s">
         <v>482</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C33" t="s">
-        <v>450</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
+        <v>449</v>
+      </c>
+      <c r="D34" t="s">
         <v>483</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C34" t="s">
-        <v>450</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s">
+        <v>449</v>
+      </c>
+      <c r="D35" t="s">
         <v>484</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C35" t="s">
-        <v>450</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
+        <v>449</v>
+      </c>
+      <c r="D36" t="s">
         <v>485</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C36" t="s">
-        <v>450</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C37" t="s">
+        <v>449</v>
+      </c>
+      <c r="D37" t="s">
         <v>486</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C37" t="s">
-        <v>450</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C38" t="s">
+        <v>449</v>
+      </c>
+      <c r="D38" t="s">
         <v>487</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C38" t="s">
-        <v>450</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C39" t="s">
+        <v>449</v>
+      </c>
+      <c r="D39" t="s">
         <v>488</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C39" t="s">
-        <v>450</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C40" t="s">
+        <v>449</v>
+      </c>
+      <c r="D40" t="s">
         <v>489</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
+    <row r="41" spans="1:5" ht="15">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C40" t="s">
-        <v>450</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>449</v>
+      </c>
+      <c r="D41" t="s">
         <v>490</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C41" t="s">
-        <v>450</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C42" t="s">
+        <v>449</v>
+      </c>
+      <c r="D42" t="s">
         <v>491</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C42" t="s">
-        <v>450</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C43" t="s">
+        <v>449</v>
+      </c>
+      <c r="D43" t="s">
         <v>492</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C43" t="s">
-        <v>450</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C44" t="s">
+        <v>449</v>
+      </c>
+      <c r="D44" t="s">
         <v>493</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C44" t="s">
-        <v>450</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C45" t="s">
+        <v>449</v>
+      </c>
+      <c r="D45" t="s">
         <v>494</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C45" t="s">
-        <v>450</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C46" t="s">
+        <v>449</v>
+      </c>
+      <c r="D46" t="s">
         <v>495</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C46" t="s">
-        <v>450</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C47" t="s">
+        <v>449</v>
+      </c>
+      <c r="D47" t="s">
         <v>496</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C47" t="s">
-        <v>450</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C48" t="s">
+        <v>449</v>
+      </c>
+      <c r="D48" t="s">
         <v>497</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C48" t="s">
-        <v>450</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C49" t="s">
+        <v>449</v>
+      </c>
+      <c r="D49" t="s">
         <v>498</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C49" t="s">
-        <v>450</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C50" t="s">
+        <v>449</v>
+      </c>
+      <c r="D50" t="s">
         <v>499</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C50" t="s">
-        <v>450</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C51" t="s">
+        <v>449</v>
+      </c>
+      <c r="D51" t="s">
         <v>500</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C51" t="s">
-        <v>450</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C52" t="s">
+        <v>449</v>
+      </c>
+      <c r="D52" t="s">
         <v>501</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C52" t="s">
-        <v>450</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C53" t="s">
+        <v>449</v>
+      </c>
+      <c r="D53" t="s">
         <v>502</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C53" t="s">
-        <v>450</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C54" t="s">
+        <v>449</v>
+      </c>
+      <c r="D54" t="s">
         <v>503</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C54" t="s">
-        <v>450</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C55" t="s">
+        <v>449</v>
+      </c>
+      <c r="D55" t="s">
         <v>504</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C55" t="s">
-        <v>450</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C56" t="s">
+        <v>449</v>
+      </c>
+      <c r="D56" t="s">
         <v>505</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+    <row r="57" spans="1:5" ht="15">
+      <c r="A57" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C56" t="s">
-        <v>450</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C57" t="s">
+        <v>449</v>
+      </c>
+      <c r="D57" t="s">
         <v>506</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
+    <row r="58" spans="1:5" ht="15">
+      <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C57" t="s">
-        <v>450</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C58" t="s">
+        <v>449</v>
+      </c>
+      <c r="D58" t="s">
         <v>507</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+    <row r="59" spans="1:5" ht="15">
+      <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C58" t="s">
-        <v>450</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D59" t="s">
         <v>508</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C59" t="s">
-        <v>450</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C60" t="s">
+        <v>449</v>
+      </c>
+      <c r="D60" t="s">
         <v>509</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C60" t="s">
-        <v>450</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C61" t="s">
+        <v>449</v>
+      </c>
+      <c r="D61" t="s">
         <v>510</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C61" t="s">
-        <v>450</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C62" t="s">
+        <v>449</v>
+      </c>
+      <c r="D62" t="s">
         <v>511</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C62" t="s">
-        <v>450</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D63" t="s">
         <v>512</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C63" t="s">
-        <v>450</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C64" t="s">
+        <v>449</v>
+      </c>
+      <c r="D64" t="s">
         <v>513</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C64" t="s">
-        <v>450</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C65" t="s">
+        <v>449</v>
+      </c>
+      <c r="D65" t="s">
         <v>514</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C65" t="s">
-        <v>450</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C66" t="s">
+        <v>449</v>
+      </c>
+      <c r="D66" t="s">
         <v>515</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C66" t="s">
-        <v>450</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C67" t="s">
+        <v>449</v>
+      </c>
+      <c r="D67" t="s">
         <v>516</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C67" t="s">
-        <v>450</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C68" t="s">
+        <v>449</v>
+      </c>
+      <c r="D68" t="s">
         <v>517</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
+    <row r="69" spans="1:5" ht="15">
+      <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C68" t="s">
-        <v>450</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C69" t="s">
+        <v>449</v>
+      </c>
+      <c r="D69" t="s">
         <v>518</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C69" t="s">
-        <v>450</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C70" t="s">
+        <v>449</v>
+      </c>
+      <c r="D70" t="s">
+        <v>502</v>
+      </c>
+      <c r="E70" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" t="s">
+        <v>449</v>
+      </c>
+      <c r="D71" t="s">
         <v>519</v>
       </c>
-      <c r="E69" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
+      <c r="E71" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" t="s">
+        <v>449</v>
+      </c>
+      <c r="D72" t="s">
+        <v>520</v>
+      </c>
+      <c r="E72" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" t="s">
+        <v>449</v>
+      </c>
+      <c r="D73" t="s">
+        <v>521</v>
+      </c>
+      <c r="E73" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" t="s">
+        <v>449</v>
+      </c>
+      <c r="D74" t="s">
+        <v>522</v>
+      </c>
+      <c r="E74" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" t="s">
+        <v>449</v>
+      </c>
+      <c r="D75" t="s">
+        <v>523</v>
+      </c>
+      <c r="E75" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" t="s">
+        <v>449</v>
+      </c>
+      <c r="D76" t="s">
+        <v>524</v>
+      </c>
+      <c r="E76" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" t="s">
+        <v>449</v>
+      </c>
+      <c r="D77" t="s">
+        <v>525</v>
+      </c>
+      <c r="E77" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" t="s">
+        <v>449</v>
+      </c>
+      <c r="D78" t="s">
+        <v>526</v>
+      </c>
+      <c r="E78" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" t="s">
+        <v>449</v>
+      </c>
+      <c r="D79" t="s">
+        <v>527</v>
+      </c>
+      <c r="E79" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" t="s">
+        <v>449</v>
+      </c>
+      <c r="D80" t="s">
+        <v>528</v>
+      </c>
+      <c r="E80" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" t="s">
+        <v>449</v>
+      </c>
+      <c r="D81" t="s">
+        <v>529</v>
+      </c>
+      <c r="E81" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" t="s">
+        <v>449</v>
+      </c>
+      <c r="D82" t="s">
+        <v>530</v>
+      </c>
+      <c r="E82" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" t="s">
+        <v>449</v>
+      </c>
+      <c r="D83" t="s">
+        <v>531</v>
+      </c>
+      <c r="E83" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" t="s">
+        <v>449</v>
+      </c>
+      <c r="D84" t="s">
+        <v>532</v>
+      </c>
+      <c r="E84" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" t="s">
+        <v>449</v>
+      </c>
+      <c r="D85" t="s">
+        <v>533</v>
+      </c>
+      <c r="E85" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" t="s">
+        <v>449</v>
+      </c>
+      <c r="D86" t="s">
+        <v>534</v>
+      </c>
+      <c r="E86" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" t="s">
+        <v>449</v>
+      </c>
+      <c r="D87" t="s">
+        <v>535</v>
+      </c>
+      <c r="E87" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" t="s">
+        <v>449</v>
+      </c>
+      <c r="D88" t="s">
+        <v>536</v>
+      </c>
+      <c r="E88" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" t="s">
+        <v>449</v>
+      </c>
+      <c r="D89" t="s">
+        <v>537</v>
+      </c>
+      <c r="E89" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" t="s">
+        <v>449</v>
+      </c>
+      <c r="D90" t="s">
+        <v>538</v>
+      </c>
+      <c r="E90" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" t="s">
+        <v>449</v>
+      </c>
+      <c r="D91" t="s">
+        <v>539</v>
+      </c>
+      <c r="E91" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" t="s">
+        <v>449</v>
+      </c>
+      <c r="D92" t="s">
+        <v>540</v>
+      </c>
+      <c r="E92" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C93" t="s">
+        <v>449</v>
+      </c>
+      <c r="D93" t="s">
+        <v>541</v>
+      </c>
+      <c r="E93" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C94" t="s">
+        <v>449</v>
+      </c>
+      <c r="D94" t="s">
+        <v>542</v>
+      </c>
+      <c r="E94" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C95" t="s">
+        <v>449</v>
+      </c>
+      <c r="D95" t="s">
+        <v>543</v>
+      </c>
+      <c r="E95" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" t="s">
+        <v>449</v>
+      </c>
+      <c r="D96" t="s">
+        <v>544</v>
+      </c>
+      <c r="E96" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" t="s">
+        <v>449</v>
+      </c>
+      <c r="D97" t="s">
+        <v>545</v>
+      </c>
+      <c r="E97" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" t="s">
+        <v>449</v>
+      </c>
+      <c r="D98" t="s">
+        <v>546</v>
+      </c>
+      <c r="E98" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C99" t="s">
+        <v>449</v>
+      </c>
+      <c r="D99" t="s">
+        <v>547</v>
+      </c>
+      <c r="E99" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" t="s">
+        <v>449</v>
+      </c>
+      <c r="D100" t="s">
+        <v>548</v>
+      </c>
+      <c r="E100" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" t="s">
+        <v>450</v>
+      </c>
+      <c r="D101" t="s">
+        <v>549</v>
+      </c>
+      <c r="E101" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" t="s">
+        <v>450</v>
+      </c>
+      <c r="D102" t="s">
+        <v>550</v>
+      </c>
+      <c r="E102" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" t="s">
+        <v>450</v>
+      </c>
+      <c r="D103" t="s">
+        <v>551</v>
+      </c>
+      <c r="E103" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" t="s">
+        <v>450</v>
+      </c>
+      <c r="D104" t="s">
+        <v>552</v>
+      </c>
+      <c r="E104" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C105" t="s">
+        <v>450</v>
+      </c>
+      <c r="D105" t="s">
+        <v>553</v>
+      </c>
+      <c r="E105" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" t="s">
+        <v>450</v>
+      </c>
+      <c r="D106" t="s">
+        <v>554</v>
+      </c>
+      <c r="E106" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C107" t="s">
+        <v>450</v>
+      </c>
+      <c r="D107" t="s">
+        <v>555</v>
+      </c>
+      <c r="E107" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" t="s">
+        <v>450</v>
+      </c>
+      <c r="D108" t="s">
+        <v>556</v>
+      </c>
+      <c r="E108" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" t="s">
+        <v>450</v>
+      </c>
+      <c r="D109" t="s">
+        <v>557</v>
+      </c>
+      <c r="E109" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" t="s">
+        <v>450</v>
+      </c>
+      <c r="D110" t="s">
+        <v>558</v>
+      </c>
+      <c r="E110" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" t="s">
+        <v>450</v>
+      </c>
+      <c r="D111" t="s">
+        <v>559</v>
+      </c>
+      <c r="E111" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C112" t="s">
+        <v>450</v>
+      </c>
+      <c r="D112" t="s">
+        <v>560</v>
+      </c>
+      <c r="E112" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C113" t="s">
+        <v>450</v>
+      </c>
+      <c r="D113" t="s">
+        <v>561</v>
+      </c>
+      <c r="E113" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C114" t="s">
+        <v>450</v>
+      </c>
+      <c r="D114" t="s">
+        <v>562</v>
+      </c>
+      <c r="E114" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C115" t="s">
+        <v>450</v>
+      </c>
+      <c r="D115" t="s">
+        <v>563</v>
+      </c>
+      <c r="E115" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C116" t="s">
+        <v>450</v>
+      </c>
+      <c r="D116" t="s">
+        <v>564</v>
+      </c>
+      <c r="E116" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" t="s">
+        <v>450</v>
+      </c>
+      <c r="D117" t="s">
+        <v>565</v>
+      </c>
+      <c r="E117" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C118" t="s">
+        <v>450</v>
+      </c>
+      <c r="D118" t="s">
+        <v>566</v>
+      </c>
+      <c r="E118" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15">
+      <c r="A119" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C119" t="s">
+        <v>450</v>
+      </c>
+      <c r="D119" t="s">
+        <v>567</v>
+      </c>
+      <c r="E119" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C120" t="s">
+        <v>450</v>
+      </c>
+      <c r="D120" t="s">
+        <v>568</v>
+      </c>
+      <c r="E120" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15">
+      <c r="A121" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C121" t="s">
+        <v>450</v>
+      </c>
+      <c r="D121" t="s">
+        <v>569</v>
+      </c>
+      <c r="E121" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C122" t="s">
+        <v>450</v>
+      </c>
+      <c r="D122" t="s">
+        <v>570</v>
+      </c>
+      <c r="E122" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15">
+      <c r="A123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C123" t="s">
+        <v>450</v>
+      </c>
+      <c r="D123" t="s">
+        <v>571</v>
+      </c>
+      <c r="E123" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15">
+      <c r="A124" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C124" t="s">
+        <v>450</v>
+      </c>
+      <c r="D124" t="s">
+        <v>572</v>
+      </c>
+      <c r="E124" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C125" t="s">
+        <v>450</v>
+      </c>
+      <c r="D125" t="s">
+        <v>573</v>
+      </c>
+      <c r="E125" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15">
+      <c r="A126" t="s">
+        <v>29</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" t="s">
+        <v>450</v>
+      </c>
+      <c r="D126" t="s">
+        <v>574</v>
+      </c>
+      <c r="E126" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15">
+      <c r="A127" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C127" t="s">
+        <v>450</v>
+      </c>
+      <c r="D127" t="s">
+        <v>575</v>
+      </c>
+      <c r="E127" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15">
+      <c r="A128" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C128" t="s">
+        <v>450</v>
+      </c>
+      <c r="D128" t="s">
+        <v>576</v>
+      </c>
+      <c r="E128" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15">
+      <c r="A129" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C129" t="s">
+        <v>450</v>
+      </c>
+      <c r="D129" t="s">
+        <v>577</v>
+      </c>
+      <c r="E129" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15">
+      <c r="A130" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C130" t="s">
+        <v>450</v>
+      </c>
+      <c r="D130" t="s">
+        <v>578</v>
+      </c>
+      <c r="E130" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15">
+      <c r="A131" t="s">
+        <v>34</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C131" t="s">
+        <v>450</v>
+      </c>
+      <c r="D131" t="s">
+        <v>579</v>
+      </c>
+      <c r="E131" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15">
+      <c r="A132" t="s">
+        <v>35</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C132" t="s">
+        <v>450</v>
+      </c>
+      <c r="D132" t="s">
+        <v>580</v>
+      </c>
+      <c r="E132" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15">
+      <c r="A133" t="s">
+        <v>36</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C133" t="s">
+        <v>450</v>
+      </c>
+      <c r="D133" t="s">
+        <v>581</v>
+      </c>
+      <c r="E133" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15">
+      <c r="A134" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C134" t="s">
+        <v>450</v>
+      </c>
+      <c r="D134" t="s">
+        <v>582</v>
+      </c>
+      <c r="E134" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15">
+      <c r="A135" t="s">
+        <v>38</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C135" t="s">
+        <v>450</v>
+      </c>
+      <c r="D135" t="s">
+        <v>583</v>
+      </c>
+      <c r="E135" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15">
+      <c r="A136" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C136" t="s">
+        <v>450</v>
+      </c>
+      <c r="D136" t="s">
+        <v>584</v>
+      </c>
+      <c r="E136" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15">
+      <c r="A137" t="s">
+        <v>40</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C137" t="s">
+        <v>450</v>
+      </c>
+      <c r="D137" t="s">
+        <v>585</v>
+      </c>
+      <c r="E137" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15">
+      <c r="A138" t="s">
+        <v>41</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C138" t="s">
+        <v>450</v>
+      </c>
+      <c r="D138" t="s">
+        <v>586</v>
+      </c>
+      <c r="E138" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15">
+      <c r="A139" t="s">
+        <v>42</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C139" t="s">
+        <v>450</v>
+      </c>
+      <c r="D139" t="s">
+        <v>587</v>
+      </c>
+      <c r="E139" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15">
+      <c r="A140" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C140" t="s">
+        <v>450</v>
+      </c>
+      <c r="D140" t="s">
+        <v>588</v>
+      </c>
+      <c r="E140" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15">
+      <c r="A141" t="s">
+        <v>44</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C141" t="s">
+        <v>450</v>
+      </c>
+      <c r="D141" t="s">
+        <v>589</v>
+      </c>
+      <c r="E141" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15">
+      <c r="A142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C142" t="s">
+        <v>450</v>
+      </c>
+      <c r="D142" t="s">
+        <v>590</v>
+      </c>
+      <c r="E142" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15">
+      <c r="A143" t="s">
+        <v>46</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C143" t="s">
+        <v>450</v>
+      </c>
+      <c r="D143" t="s">
+        <v>591</v>
+      </c>
+      <c r="E143" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15">
+      <c r="A144" t="s">
+        <v>47</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C144" t="s">
+        <v>450</v>
+      </c>
+      <c r="D144" t="s">
+        <v>592</v>
+      </c>
+      <c r="E144" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15">
+      <c r="A145" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C145" t="s">
+        <v>450</v>
+      </c>
+      <c r="D145" t="s">
+        <v>593</v>
+      </c>
+      <c r="E145" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15">
+      <c r="A146" t="s">
+        <v>49</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C146" t="s">
+        <v>450</v>
+      </c>
+      <c r="D146" t="s">
+        <v>594</v>
+      </c>
+      <c r="E146" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15">
+      <c r="A147" t="s">
+        <v>50</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C147" t="s">
+        <v>450</v>
+      </c>
+      <c r="D147" t="s">
+        <v>595</v>
+      </c>
+      <c r="E147" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15">
+      <c r="A148" t="s">
+        <v>51</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C148" t="s">
+        <v>450</v>
+      </c>
+      <c r="D148" t="s">
+        <v>596</v>
+      </c>
+      <c r="E148" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15">
+      <c r="A149" t="s">
+        <v>52</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C149" t="s">
+        <v>450</v>
+      </c>
+      <c r="D149" t="s">
+        <v>597</v>
+      </c>
+      <c r="E149" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15">
+      <c r="A150" t="s">
+        <v>53</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C150" t="s">
+        <v>450</v>
+      </c>
+      <c r="D150" t="s">
+        <v>598</v>
+      </c>
+      <c r="E150" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15">
+      <c r="A151" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C151" t="s">
+        <v>450</v>
+      </c>
+      <c r="D151" t="s">
+        <v>599</v>
+      </c>
+      <c r="E151" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15">
+      <c r="A152" t="s">
+        <v>55</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C152" t="s">
+        <v>450</v>
+      </c>
+      <c r="D152" t="s">
+        <v>600</v>
+      </c>
+      <c r="E152" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15">
+      <c r="A153" t="s">
+        <v>56</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" t="s">
+        <v>450</v>
+      </c>
+      <c r="D153" t="s">
+        <v>601</v>
+      </c>
+      <c r="E153" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15">
+      <c r="A154" t="s">
+        <v>57</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D154" t="s">
+        <v>602</v>
+      </c>
+      <c r="E154" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15">
+      <c r="A155" t="s">
+        <v>58</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C155" t="s">
+        <v>450</v>
+      </c>
+      <c r="D155" t="s">
+        <v>603</v>
+      </c>
+      <c r="E155" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15">
+      <c r="A156" t="s">
+        <v>59</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C156" t="s">
+        <v>450</v>
+      </c>
+      <c r="D156" t="s">
+        <v>604</v>
+      </c>
+      <c r="E156" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15">
+      <c r="A157" t="s">
+        <v>60</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C157" t="s">
+        <v>450</v>
+      </c>
+      <c r="D157" t="s">
+        <v>605</v>
+      </c>
+      <c r="E157" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15">
+      <c r="A158" t="s">
+        <v>61</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C158" t="s">
+        <v>450</v>
+      </c>
+      <c r="D158" t="s">
+        <v>606</v>
+      </c>
+      <c r="E158" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15">
+      <c r="A159" t="s">
+        <v>62</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C159" t="s">
+        <v>450</v>
+      </c>
+      <c r="D159" t="s">
+        <v>607</v>
+      </c>
+      <c r="E159" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15">
+      <c r="A160" t="s">
+        <v>63</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C160" t="s">
+        <v>450</v>
+      </c>
+      <c r="D160" t="s">
+        <v>608</v>
+      </c>
+      <c r="E160" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15">
+      <c r="A161" t="s">
+        <v>64</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C161" t="s">
+        <v>450</v>
+      </c>
+      <c r="D161" t="s">
+        <v>609</v>
+      </c>
+      <c r="E161" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15">
+      <c r="A162" t="s">
+        <v>65</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C162" t="s">
+        <v>450</v>
+      </c>
+      <c r="D162" t="s">
+        <v>610</v>
+      </c>
+      <c r="E162" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15">
+      <c r="A163" t="s">
+        <v>66</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C163" t="s">
+        <v>450</v>
+      </c>
+      <c r="D163" t="s">
+        <v>611</v>
+      </c>
+      <c r="E163" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15">
+      <c r="A164" t="s">
+        <v>67</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C164" t="s">
+        <v>450</v>
+      </c>
+      <c r="D164" t="s">
+        <v>612</v>
+      </c>
+      <c r="E164" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15">
+      <c r="A165" t="s">
+        <v>68</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C165" t="s">
+        <v>450</v>
+      </c>
+      <c r="D165" t="s">
+        <v>613</v>
+      </c>
+      <c r="E165" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15">
+      <c r="A166" t="s">
+        <v>69</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C166" t="s">
+        <v>450</v>
+      </c>
+      <c r="D166" t="s">
+        <v>614</v>
+      </c>
+      <c r="E166" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15">
+      <c r="A167" t="s">
+        <v>70</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C167" t="s">
+        <v>450</v>
+      </c>
+      <c r="D167" t="s">
+        <v>615</v>
+      </c>
+      <c r="E167" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15">
+      <c r="A168" t="s">
+        <v>71</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C168" t="s">
+        <v>450</v>
+      </c>
+      <c r="D168" t="s">
+        <v>616</v>
+      </c>
+      <c r="E168" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15">
+      <c r="A169" t="s">
+        <v>72</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C169" t="s">
+        <v>450</v>
+      </c>
+      <c r="D169" t="s">
+        <v>617</v>
+      </c>
+      <c r="E169" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15">
+      <c r="A170" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C70" t="s">
-        <v>450</v>
-      </c>
-      <c r="D70" t="s">
-        <v>503</v>
-      </c>
-      <c r="E70" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
+      <c r="B170" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C170" t="s">
+        <v>450</v>
+      </c>
+      <c r="D170" t="s">
+        <v>618</v>
+      </c>
+      <c r="E170" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15">
+      <c r="A171" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C71" t="s">
-        <v>450</v>
-      </c>
-      <c r="D71" t="s">
-        <v>520</v>
-      </c>
-      <c r="E71" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
+      <c r="B171" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C171" t="s">
+        <v>450</v>
+      </c>
+      <c r="D171" t="s">
+        <v>619</v>
+      </c>
+      <c r="E171" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15">
+      <c r="A172" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C72" t="s">
-        <v>450</v>
-      </c>
-      <c r="D72" t="s">
-        <v>521</v>
-      </c>
-      <c r="E72" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
+      <c r="B172" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C172" t="s">
+        <v>450</v>
+      </c>
+      <c r="D172" t="s">
+        <v>620</v>
+      </c>
+      <c r="E172" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15">
+      <c r="A173" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C73" t="s">
-        <v>450</v>
-      </c>
-      <c r="D73" t="s">
-        <v>522</v>
-      </c>
-      <c r="E73" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
+      <c r="B173" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173" t="s">
+        <v>450</v>
+      </c>
+      <c r="D173" t="s">
+        <v>621</v>
+      </c>
+      <c r="E173" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15">
+      <c r="A174" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C74" t="s">
-        <v>450</v>
-      </c>
-      <c r="D74" t="s">
-        <v>523</v>
-      </c>
-      <c r="E74" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
+      <c r="B174" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174" t="s">
+        <v>450</v>
+      </c>
+      <c r="D174" t="s">
+        <v>622</v>
+      </c>
+      <c r="E174" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15">
+      <c r="A175" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C75" t="s">
-        <v>450</v>
-      </c>
-      <c r="D75" t="s">
-        <v>524</v>
-      </c>
-      <c r="E75" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
+      <c r="B175" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175" t="s">
+        <v>450</v>
+      </c>
+      <c r="D175" t="s">
+        <v>623</v>
+      </c>
+      <c r="E175" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15">
+      <c r="A176" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C76" t="s">
-        <v>450</v>
-      </c>
-      <c r="D76" t="s">
-        <v>525</v>
-      </c>
-      <c r="E76" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
+      <c r="B176" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C176" t="s">
+        <v>450</v>
+      </c>
+      <c r="D176" t="s">
+        <v>624</v>
+      </c>
+      <c r="E176" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15">
+      <c r="A177" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C77" t="s">
-        <v>450</v>
-      </c>
-      <c r="D77" t="s">
-        <v>526</v>
-      </c>
-      <c r="E77" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
+      <c r="B177" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C177" t="s">
+        <v>450</v>
+      </c>
+      <c r="D177" t="s">
+        <v>625</v>
+      </c>
+      <c r="E177" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15">
+      <c r="A178" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C78" t="s">
-        <v>450</v>
-      </c>
-      <c r="D78" t="s">
-        <v>527</v>
-      </c>
-      <c r="E78" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
+      <c r="B178" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C178" t="s">
+        <v>450</v>
+      </c>
+      <c r="D178" t="s">
+        <v>626</v>
+      </c>
+      <c r="E178" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15">
+      <c r="A179" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C79" t="s">
-        <v>450</v>
-      </c>
-      <c r="D79" t="s">
-        <v>528</v>
-      </c>
-      <c r="E79" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
+      <c r="B179" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" t="s">
+        <v>450</v>
+      </c>
+      <c r="D179" t="s">
+        <v>627</v>
+      </c>
+      <c r="E179" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15">
+      <c r="A180" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C80" t="s">
-        <v>450</v>
-      </c>
-      <c r="D80" t="s">
-        <v>529</v>
-      </c>
-      <c r="E80" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
+      <c r="B180" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C180" t="s">
+        <v>450</v>
+      </c>
+      <c r="D180" t="s">
+        <v>628</v>
+      </c>
+      <c r="E180" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15">
+      <c r="A181" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C81" t="s">
-        <v>450</v>
-      </c>
-      <c r="D81" t="s">
-        <v>530</v>
-      </c>
-      <c r="E81" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
+      <c r="B181" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C181" t="s">
+        <v>450</v>
+      </c>
+      <c r="D181" t="s">
+        <v>629</v>
+      </c>
+      <c r="E181" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15">
+      <c r="A182" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C82" t="s">
-        <v>450</v>
-      </c>
-      <c r="D82" t="s">
-        <v>531</v>
-      </c>
-      <c r="E82" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
+      <c r="B182" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C182" t="s">
+        <v>450</v>
+      </c>
+      <c r="D182" t="s">
+        <v>630</v>
+      </c>
+      <c r="E182" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15">
+      <c r="A183" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" t="s">
-        <v>450</v>
-      </c>
-      <c r="D83" t="s">
-        <v>532</v>
-      </c>
-      <c r="E83" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
+      <c r="B183" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C183" t="s">
+        <v>450</v>
+      </c>
+      <c r="D183" t="s">
+        <v>631</v>
+      </c>
+      <c r="E183" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15">
+      <c r="A184" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C84" t="s">
-        <v>450</v>
-      </c>
-      <c r="D84" t="s">
-        <v>533</v>
-      </c>
-      <c r="E84" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
+      <c r="B184" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C184" t="s">
+        <v>450</v>
+      </c>
+      <c r="D184" t="s">
+        <v>632</v>
+      </c>
+      <c r="E184" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15">
+      <c r="A185" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C85" t="s">
-        <v>450</v>
-      </c>
-      <c r="D85" t="s">
-        <v>534</v>
-      </c>
-      <c r="E85" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
+      <c r="B185" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C185" t="s">
+        <v>450</v>
+      </c>
+      <c r="D185" t="s">
+        <v>633</v>
+      </c>
+      <c r="E185" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15">
+      <c r="A186" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C86" t="s">
-        <v>450</v>
-      </c>
-      <c r="D86" t="s">
-        <v>535</v>
-      </c>
-      <c r="E86" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
+      <c r="B186" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C186" t="s">
+        <v>450</v>
+      </c>
+      <c r="D186" t="s">
+        <v>634</v>
+      </c>
+      <c r="E186" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15">
+      <c r="A187" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C87" t="s">
-        <v>450</v>
-      </c>
-      <c r="D87" t="s">
-        <v>536</v>
-      </c>
-      <c r="E87" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
+      <c r="B187" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C187" t="s">
+        <v>450</v>
+      </c>
+      <c r="D187" t="s">
+        <v>635</v>
+      </c>
+      <c r="E187" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15">
+      <c r="A188" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C88" t="s">
-        <v>450</v>
-      </c>
-      <c r="D88" t="s">
-        <v>537</v>
-      </c>
-      <c r="E88" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
+      <c r="B188" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C188" t="s">
+        <v>450</v>
+      </c>
+      <c r="D188" t="s">
+        <v>636</v>
+      </c>
+      <c r="E188" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15">
+      <c r="A189" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C89" t="s">
-        <v>450</v>
-      </c>
-      <c r="D89" t="s">
-        <v>538</v>
-      </c>
-      <c r="E89" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
+      <c r="B189" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C189" t="s">
+        <v>450</v>
+      </c>
+      <c r="D189" t="s">
+        <v>637</v>
+      </c>
+      <c r="E189" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15">
+      <c r="A190" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C90" t="s">
-        <v>450</v>
-      </c>
-      <c r="D90" t="s">
-        <v>539</v>
-      </c>
-      <c r="E90" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
+      <c r="B190" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C190" t="s">
+        <v>450</v>
+      </c>
+      <c r="D190" t="s">
+        <v>638</v>
+      </c>
+      <c r="E190" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15">
+      <c r="A191" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C91" t="s">
-        <v>450</v>
-      </c>
-      <c r="D91" t="s">
-        <v>540</v>
-      </c>
-      <c r="E91" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
+      <c r="B191" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C191" t="s">
+        <v>450</v>
+      </c>
+      <c r="D191" t="s">
+        <v>639</v>
+      </c>
+      <c r="E191" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15">
+      <c r="A192" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C92" t="s">
-        <v>450</v>
-      </c>
-      <c r="D92" t="s">
-        <v>541</v>
-      </c>
-      <c r="E92" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
+      <c r="B192" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C192" t="s">
+        <v>450</v>
+      </c>
+      <c r="D192" t="s">
+        <v>640</v>
+      </c>
+      <c r="E192" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15">
+      <c r="A193" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C93" t="s">
-        <v>450</v>
-      </c>
-      <c r="D93" t="s">
-        <v>542</v>
-      </c>
-      <c r="E93" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
+      <c r="B193" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C193" t="s">
+        <v>450</v>
+      </c>
+      <c r="D193" t="s">
+        <v>641</v>
+      </c>
+      <c r="E193" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15">
+      <c r="A194" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C94" t="s">
-        <v>450</v>
-      </c>
-      <c r="D94" t="s">
-        <v>543</v>
-      </c>
-      <c r="E94" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
+      <c r="B194" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C194" t="s">
+        <v>450</v>
+      </c>
+      <c r="D194" t="s">
+        <v>642</v>
+      </c>
+      <c r="E194" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15">
+      <c r="A195" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C95" t="s">
-        <v>450</v>
-      </c>
-      <c r="D95" t="s">
-        <v>544</v>
-      </c>
-      <c r="E95" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
+      <c r="B195" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C195" t="s">
+        <v>450</v>
+      </c>
+      <c r="D195" t="s">
+        <v>643</v>
+      </c>
+      <c r="E195" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15">
+      <c r="A196" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C96" t="s">
-        <v>450</v>
-      </c>
-      <c r="D96" t="s">
-        <v>545</v>
-      </c>
-      <c r="E96" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
+      <c r="B196" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C196" t="s">
+        <v>450</v>
+      </c>
+      <c r="D196" t="s">
+        <v>644</v>
+      </c>
+      <c r="E196" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15">
+      <c r="A197" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C97" t="s">
-        <v>450</v>
-      </c>
-      <c r="D97" t="s">
-        <v>546</v>
-      </c>
-      <c r="E97" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
+      <c r="B197" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C197" t="s">
+        <v>450</v>
+      </c>
+      <c r="D197" t="s">
+        <v>645</v>
+      </c>
+      <c r="E197" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15">
+      <c r="A198" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C98" t="s">
-        <v>450</v>
-      </c>
-      <c r="D98" t="s">
-        <v>547</v>
-      </c>
-      <c r="E98" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
+      <c r="B198" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C198" t="s">
+        <v>450</v>
+      </c>
+      <c r="D198" t="s">
+        <v>646</v>
+      </c>
+      <c r="E198" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15">
+      <c r="A199" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C99" t="s">
-        <v>450</v>
-      </c>
-      <c r="D99" t="s">
-        <v>548</v>
-      </c>
-      <c r="E99" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
+      <c r="B199" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C199" t="s">
+        <v>450</v>
+      </c>
+      <c r="D199" t="s">
+        <v>647</v>
+      </c>
+      <c r="E199" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15">
+      <c r="A200" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C100" t="s">
-        <v>450</v>
-      </c>
-      <c r="D100" t="s">
-        <v>549</v>
-      </c>
-      <c r="E100" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C101" t="s">
-        <v>451</v>
-      </c>
-      <c r="D101" t="s">
-        <v>550</v>
-      </c>
-      <c r="E101" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C102" t="s">
-        <v>451</v>
-      </c>
-      <c r="D102" t="s">
-        <v>551</v>
-      </c>
-      <c r="E102" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C103" t="s">
-        <v>451</v>
-      </c>
-      <c r="D103" t="s">
-        <v>552</v>
-      </c>
-      <c r="E103" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C104" t="s">
-        <v>451</v>
-      </c>
-      <c r="D104" t="s">
-        <v>553</v>
-      </c>
-      <c r="E104" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C105" t="s">
-        <v>451</v>
-      </c>
-      <c r="D105" t="s">
-        <v>554</v>
-      </c>
-      <c r="E105" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C106" t="s">
-        <v>451</v>
-      </c>
-      <c r="D106" t="s">
-        <v>555</v>
-      </c>
-      <c r="E106" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C107" t="s">
-        <v>451</v>
-      </c>
-      <c r="D107" t="s">
-        <v>556</v>
-      </c>
-      <c r="E107" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>12</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C108" t="s">
-        <v>451</v>
-      </c>
-      <c r="D108" t="s">
-        <v>557</v>
-      </c>
-      <c r="E108" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C109" t="s">
-        <v>451</v>
-      </c>
-      <c r="D109" t="s">
-        <v>558</v>
-      </c>
-      <c r="E109" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C110" t="s">
-        <v>451</v>
-      </c>
-      <c r="D110" t="s">
-        <v>559</v>
-      </c>
-      <c r="E110" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C111" t="s">
-        <v>451</v>
-      </c>
-      <c r="D111" t="s">
-        <v>560</v>
-      </c>
-      <c r="E111" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C112" t="s">
-        <v>451</v>
-      </c>
-      <c r="D112" t="s">
-        <v>561</v>
-      </c>
-      <c r="E112" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C113" t="s">
-        <v>451</v>
-      </c>
-      <c r="D113" t="s">
-        <v>562</v>
-      </c>
-      <c r="E113" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>18</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C114" t="s">
-        <v>451</v>
-      </c>
-      <c r="D114" t="s">
-        <v>563</v>
-      </c>
-      <c r="E114" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>19</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C115" t="s">
-        <v>451</v>
-      </c>
-      <c r="D115" t="s">
-        <v>564</v>
-      </c>
-      <c r="E115" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>20</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C116" t="s">
-        <v>451</v>
-      </c>
-      <c r="D116" t="s">
-        <v>565</v>
-      </c>
-      <c r="E116" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>21</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C117" t="s">
-        <v>451</v>
-      </c>
-      <c r="D117" t="s">
-        <v>566</v>
-      </c>
-      <c r="E117" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>22</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C118" t="s">
-        <v>451</v>
-      </c>
-      <c r="D118" t="s">
-        <v>567</v>
-      </c>
-      <c r="E118" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>23</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C119" t="s">
-        <v>451</v>
-      </c>
-      <c r="D119" t="s">
-        <v>568</v>
-      </c>
-      <c r="E119" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>24</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C120" t="s">
-        <v>451</v>
-      </c>
-      <c r="D120" t="s">
-        <v>569</v>
-      </c>
-      <c r="E120" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>25</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C121" t="s">
-        <v>451</v>
-      </c>
-      <c r="D121" t="s">
-        <v>570</v>
-      </c>
-      <c r="E121" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>26</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C122" t="s">
-        <v>451</v>
-      </c>
-      <c r="D122" t="s">
-        <v>571</v>
-      </c>
-      <c r="E122" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>27</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C123" t="s">
-        <v>451</v>
-      </c>
-      <c r="D123" t="s">
-        <v>572</v>
-      </c>
-      <c r="E123" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>28</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C124" t="s">
-        <v>451</v>
-      </c>
-      <c r="D124" t="s">
-        <v>573</v>
-      </c>
-      <c r="E124" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>29</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C125" t="s">
-        <v>451</v>
-      </c>
-      <c r="D125" t="s">
-        <v>574</v>
-      </c>
-      <c r="E125" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>30</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C126" t="s">
-        <v>451</v>
-      </c>
-      <c r="D126" t="s">
-        <v>575</v>
-      </c>
-      <c r="E126" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>31</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C127" t="s">
-        <v>451</v>
-      </c>
-      <c r="D127" t="s">
-        <v>576</v>
-      </c>
-      <c r="E127" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>32</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C128" t="s">
-        <v>451</v>
-      </c>
-      <c r="D128" t="s">
-        <v>577</v>
-      </c>
-      <c r="E128" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>33</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C129" t="s">
-        <v>451</v>
-      </c>
-      <c r="D129" t="s">
-        <v>578</v>
-      </c>
-      <c r="E129" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>34</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C130" t="s">
-        <v>451</v>
-      </c>
-      <c r="D130" t="s">
-        <v>579</v>
-      </c>
-      <c r="E130" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>35</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C131" t="s">
-        <v>451</v>
-      </c>
-      <c r="D131" t="s">
-        <v>580</v>
-      </c>
-      <c r="E131" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>36</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C132" t="s">
-        <v>451</v>
-      </c>
-      <c r="D132" t="s">
-        <v>581</v>
-      </c>
-      <c r="E132" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>37</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C133" t="s">
-        <v>451</v>
-      </c>
-      <c r="D133" t="s">
-        <v>582</v>
-      </c>
-      <c r="E133" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>38</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C134" t="s">
-        <v>451</v>
-      </c>
-      <c r="D134" t="s">
-        <v>583</v>
-      </c>
-      <c r="E134" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>39</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C135" t="s">
-        <v>451</v>
-      </c>
-      <c r="D135" t="s">
-        <v>584</v>
-      </c>
-      <c r="E135" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>40</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C136" t="s">
-        <v>451</v>
-      </c>
-      <c r="D136" t="s">
-        <v>585</v>
-      </c>
-      <c r="E136" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>41</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C137" t="s">
-        <v>451</v>
-      </c>
-      <c r="D137" t="s">
-        <v>586</v>
-      </c>
-      <c r="E137" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
-        <v>42</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C138" t="s">
-        <v>451</v>
-      </c>
-      <c r="D138" t="s">
-        <v>587</v>
-      </c>
-      <c r="E138" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" t="s">
-        <v>43</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C139" t="s">
-        <v>451</v>
-      </c>
-      <c r="D139" t="s">
-        <v>588</v>
-      </c>
-      <c r="E139" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>44</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C140" t="s">
-        <v>451</v>
-      </c>
-      <c r="D140" t="s">
-        <v>589</v>
-      </c>
-      <c r="E140" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>45</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C141" t="s">
-        <v>451</v>
-      </c>
-      <c r="D141" t="s">
-        <v>590</v>
-      </c>
-      <c r="E141" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" t="s">
-        <v>46</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C142" t="s">
-        <v>451</v>
-      </c>
-      <c r="D142" t="s">
-        <v>591</v>
-      </c>
-      <c r="E142" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
-        <v>47</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C143" t="s">
-        <v>451</v>
-      </c>
-      <c r="D143" t="s">
-        <v>592</v>
-      </c>
-      <c r="E143" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" t="s">
-        <v>48</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C144" t="s">
-        <v>451</v>
-      </c>
-      <c r="D144" t="s">
-        <v>593</v>
-      </c>
-      <c r="E144" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>49</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C145" t="s">
-        <v>451</v>
-      </c>
-      <c r="D145" t="s">
-        <v>594</v>
-      </c>
-      <c r="E145" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>50</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C146" t="s">
-        <v>451</v>
-      </c>
-      <c r="D146" t="s">
-        <v>595</v>
-      </c>
-      <c r="E146" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" t="s">
-        <v>51</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C147" t="s">
-        <v>451</v>
-      </c>
-      <c r="D147" t="s">
-        <v>596</v>
-      </c>
-      <c r="E147" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" t="s">
-        <v>52</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C148" t="s">
-        <v>451</v>
-      </c>
-      <c r="D148" t="s">
-        <v>597</v>
-      </c>
-      <c r="E148" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" t="s">
-        <v>53</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C149" t="s">
-        <v>451</v>
-      </c>
-      <c r="D149" t="s">
-        <v>598</v>
-      </c>
-      <c r="E149" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
-        <v>54</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C150" t="s">
-        <v>451</v>
-      </c>
-      <c r="D150" t="s">
-        <v>599</v>
-      </c>
-      <c r="E150" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" t="s">
-        <v>55</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C151" t="s">
-        <v>451</v>
-      </c>
-      <c r="D151" t="s">
-        <v>600</v>
-      </c>
-      <c r="E151" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>56</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C152" t="s">
-        <v>451</v>
-      </c>
-      <c r="D152" t="s">
-        <v>601</v>
-      </c>
-      <c r="E152" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" t="s">
-        <v>57</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C153" t="s">
-        <v>451</v>
-      </c>
-      <c r="D153" t="s">
-        <v>602</v>
-      </c>
-      <c r="E153" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" t="s">
-        <v>58</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C154" t="s">
-        <v>451</v>
-      </c>
-      <c r="D154" t="s">
-        <v>603</v>
-      </c>
-      <c r="E154" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
-        <v>59</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C155" t="s">
-        <v>451</v>
-      </c>
-      <c r="D155" t="s">
-        <v>604</v>
-      </c>
-      <c r="E155" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" t="s">
-        <v>60</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C156" t="s">
-        <v>451</v>
-      </c>
-      <c r="D156" t="s">
-        <v>605</v>
-      </c>
-      <c r="E156" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>61</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C157" t="s">
-        <v>451</v>
-      </c>
-      <c r="D157" t="s">
-        <v>606</v>
-      </c>
-      <c r="E157" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>62</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C158" t="s">
-        <v>451</v>
-      </c>
-      <c r="D158" t="s">
-        <v>607</v>
-      </c>
-      <c r="E158" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>63</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C159" t="s">
-        <v>451</v>
-      </c>
-      <c r="D159" t="s">
-        <v>608</v>
-      </c>
-      <c r="E159" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>64</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C160" t="s">
-        <v>451</v>
-      </c>
-      <c r="D160" t="s">
-        <v>609</v>
-      </c>
-      <c r="E160" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>65</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C161" t="s">
-        <v>451</v>
-      </c>
-      <c r="D161" t="s">
-        <v>610</v>
-      </c>
-      <c r="E161" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" t="s">
-        <v>66</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C162" t="s">
-        <v>451</v>
-      </c>
-      <c r="D162" t="s">
-        <v>611</v>
-      </c>
-      <c r="E162" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>67</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C163" t="s">
-        <v>451</v>
-      </c>
-      <c r="D163" t="s">
-        <v>612</v>
-      </c>
-      <c r="E163" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" t="s">
-        <v>68</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C164" t="s">
-        <v>451</v>
-      </c>
-      <c r="D164" t="s">
-        <v>613</v>
-      </c>
-      <c r="E164" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" t="s">
-        <v>69</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C165" t="s">
-        <v>451</v>
-      </c>
-      <c r="D165" t="s">
-        <v>614</v>
-      </c>
-      <c r="E165" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" t="s">
-        <v>70</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C166" t="s">
-        <v>451</v>
-      </c>
-      <c r="D166" t="s">
-        <v>615</v>
-      </c>
-      <c r="E166" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" t="s">
-        <v>71</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C167" t="s">
-        <v>451</v>
-      </c>
-      <c r="D167" t="s">
-        <v>616</v>
-      </c>
-      <c r="E167" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" t="s">
-        <v>72</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C168" t="s">
-        <v>451</v>
-      </c>
-      <c r="D168" t="s">
-        <v>617</v>
-      </c>
-      <c r="E168" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" t="s">
-        <v>73</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C169" t="s">
-        <v>451</v>
-      </c>
-      <c r="D169" t="s">
-        <v>618</v>
-      </c>
-      <c r="E169" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" t="s">
-        <v>74</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C170" t="s">
-        <v>451</v>
-      </c>
-      <c r="D170" t="s">
-        <v>619</v>
-      </c>
-      <c r="E170" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" t="s">
-        <v>75</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C171" t="s">
-        <v>451</v>
-      </c>
-      <c r="D171" t="s">
-        <v>620</v>
-      </c>
-      <c r="E171" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" t="s">
-        <v>76</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C172" t="s">
-        <v>451</v>
-      </c>
-      <c r="D172" t="s">
-        <v>621</v>
-      </c>
-      <c r="E172" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" t="s">
-        <v>77</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C173" t="s">
-        <v>451</v>
-      </c>
-      <c r="D173" t="s">
-        <v>622</v>
-      </c>
-      <c r="E173" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" t="s">
-        <v>78</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C174" t="s">
-        <v>451</v>
-      </c>
-      <c r="D174" t="s">
-        <v>623</v>
-      </c>
-      <c r="E174" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" t="s">
-        <v>79</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C175" t="s">
-        <v>451</v>
-      </c>
-      <c r="D175" t="s">
-        <v>624</v>
-      </c>
-      <c r="E175" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" t="s">
-        <v>80</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C176" t="s">
-        <v>451</v>
-      </c>
-      <c r="D176" t="s">
-        <v>625</v>
-      </c>
-      <c r="E176" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" t="s">
-        <v>81</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C177" t="s">
-        <v>451</v>
-      </c>
-      <c r="D177" t="s">
-        <v>626</v>
-      </c>
-      <c r="E177" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
-        <v>82</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C178" t="s">
-        <v>451</v>
-      </c>
-      <c r="D178" t="s">
-        <v>627</v>
-      </c>
-      <c r="E178" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" t="s">
-        <v>83</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C179" t="s">
-        <v>451</v>
-      </c>
-      <c r="D179" t="s">
-        <v>628</v>
-      </c>
-      <c r="E179" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" t="s">
-        <v>84</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C180" t="s">
-        <v>451</v>
-      </c>
-      <c r="D180" t="s">
-        <v>629</v>
-      </c>
-      <c r="E180" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" t="s">
-        <v>85</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C181" t="s">
-        <v>451</v>
-      </c>
-      <c r="D181" t="s">
-        <v>630</v>
-      </c>
-      <c r="E181" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" t="s">
-        <v>86</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C182" t="s">
-        <v>451</v>
-      </c>
-      <c r="D182" t="s">
-        <v>631</v>
-      </c>
-      <c r="E182" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" t="s">
-        <v>87</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C183" t="s">
-        <v>451</v>
-      </c>
-      <c r="D183" t="s">
-        <v>632</v>
-      </c>
-      <c r="E183" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" t="s">
-        <v>88</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C184" t="s">
-        <v>451</v>
-      </c>
-      <c r="D184" t="s">
-        <v>633</v>
-      </c>
-      <c r="E184" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" t="s">
-        <v>89</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C185" t="s">
-        <v>451</v>
-      </c>
-      <c r="D185" t="s">
-        <v>634</v>
-      </c>
-      <c r="E185" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" t="s">
-        <v>90</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C186" t="s">
-        <v>451</v>
-      </c>
-      <c r="D186" t="s">
-        <v>635</v>
-      </c>
-      <c r="E186" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" t="s">
-        <v>91</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C187" t="s">
-        <v>451</v>
-      </c>
-      <c r="D187" t="s">
-        <v>636</v>
-      </c>
-      <c r="E187" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" t="s">
-        <v>92</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C188" t="s">
-        <v>451</v>
-      </c>
-      <c r="D188" t="s">
-        <v>637</v>
-      </c>
-      <c r="E188" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" t="s">
-        <v>93</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C189" t="s">
-        <v>451</v>
-      </c>
-      <c r="D189" t="s">
-        <v>638</v>
-      </c>
-      <c r="E189" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" t="s">
-        <v>94</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C190" t="s">
-        <v>451</v>
-      </c>
-      <c r="D190" t="s">
-        <v>639</v>
-      </c>
-      <c r="E190" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" t="s">
-        <v>95</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C191" t="s">
-        <v>451</v>
-      </c>
-      <c r="D191" t="s">
-        <v>640</v>
-      </c>
-      <c r="E191" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" t="s">
-        <v>96</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C192" t="s">
-        <v>451</v>
-      </c>
-      <c r="D192" t="s">
-        <v>641</v>
-      </c>
-      <c r="E192" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" t="s">
-        <v>97</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C193" t="s">
-        <v>451</v>
-      </c>
-      <c r="D193" t="s">
-        <v>642</v>
-      </c>
-      <c r="E193" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" t="s">
-        <v>98</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C194" t="s">
-        <v>451</v>
-      </c>
-      <c r="D194" t="s">
-        <v>643</v>
-      </c>
-      <c r="E194" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" t="s">
-        <v>99</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C195" t="s">
-        <v>451</v>
-      </c>
-      <c r="D195" t="s">
-        <v>644</v>
-      </c>
-      <c r="E195" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" t="s">
-        <v>100</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C196" t="s">
-        <v>451</v>
-      </c>
-      <c r="D196" t="s">
-        <v>645</v>
-      </c>
-      <c r="E196" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" t="s">
-        <v>101</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C197" t="s">
-        <v>451</v>
-      </c>
-      <c r="D197" t="s">
-        <v>646</v>
-      </c>
-      <c r="E197" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
-        <v>102</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C198" t="s">
-        <v>451</v>
-      </c>
-      <c r="D198" t="s">
-        <v>647</v>
-      </c>
-      <c r="E198" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>103</v>
-      </c>
-      <c r="B199" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C199" t="s">
-        <v>451</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="C200" t="s">
+        <v>450</v>
+      </c>
+      <c r="D200" t="s">
         <v>648</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E200" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
+    <row r="201" spans="1:5" ht="15">
+      <c r="A201" t="s">
         <v>104</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B201" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C200" t="s">
-        <v>451</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="C201" t="s">
+        <v>450</v>
+      </c>
+      <c r="D201" t="s">
         <v>649</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E201" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
+    <row r="202" spans="1:5" ht="15">
+      <c r="A202" t="s">
         <v>105</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B202" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C201" t="s">
-        <v>451</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="C202" t="s">
+        <v>450</v>
+      </c>
+      <c r="D202" t="s">
         <v>650</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E202" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
+    <row r="203" spans="1:5" ht="15">
+      <c r="A203" t="s">
         <v>106</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B203" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C202" t="s">
-        <v>451</v>
-      </c>
-      <c r="D202" t="s">
+      <c r="C203" t="s">
+        <v>450</v>
+      </c>
+      <c r="D203" t="s">
         <v>651</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E203" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
+    <row r="204" spans="1:5" ht="15">
+      <c r="A204" t="s">
         <v>107</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B204" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C203" t="s">
-        <v>451</v>
-      </c>
-      <c r="D203" t="s">
+      <c r="C204" t="s">
+        <v>450</v>
+      </c>
+      <c r="D204" t="s">
         <v>652</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E204" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
+    <row r="205" spans="1:5" ht="15">
+      <c r="A205" t="s">
         <v>108</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C204" t="s">
-        <v>451</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="C205" t="s">
+        <v>450</v>
+      </c>
+      <c r="D205" t="s">
         <v>653</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E205" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
+    <row r="206" spans="1:5" ht="15">
+      <c r="A206" t="s">
         <v>109</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B206" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C205" t="s">
-        <v>451</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="C206" t="s">
+        <v>450</v>
+      </c>
+      <c r="D206" t="s">
         <v>654</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E206" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
+    <row r="207" spans="1:5" ht="15">
+      <c r="A207" t="s">
         <v>110</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C206" t="s">
-        <v>451</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="C207" t="s">
+        <v>450</v>
+      </c>
+      <c r="D207" t="s">
         <v>655</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E207" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
+    <row r="208" spans="1:5" ht="15">
+      <c r="A208" t="s">
         <v>111</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C207" t="s">
-        <v>451</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="C208" t="s">
+        <v>450</v>
+      </c>
+      <c r="D208" t="s">
         <v>656</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E208" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
+    <row r="209" spans="1:5" ht="15">
+      <c r="A209" t="s">
         <v>112</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C208" t="s">
-        <v>451</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="C209" t="s">
+        <v>450</v>
+      </c>
+      <c r="D209" t="s">
         <v>657</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E209" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
+    <row r="210" spans="1:5" ht="15">
+      <c r="A210" t="s">
         <v>113</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C209" t="s">
-        <v>451</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="C210" t="s">
+        <v>450</v>
+      </c>
+      <c r="D210" t="s">
         <v>658</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E210" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
+    <row r="211" spans="1:5" ht="15">
+      <c r="A211" t="s">
         <v>114</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C210" t="s">
-        <v>451</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="C211" t="s">
+        <v>450</v>
+      </c>
+      <c r="D211" t="s">
         <v>659</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E211" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
+    <row r="212" spans="1:5" ht="15">
+      <c r="A212" t="s">
         <v>115</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C211" t="s">
-        <v>451</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="C212" t="s">
+        <v>450</v>
+      </c>
+      <c r="D212" t="s">
         <v>660</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E212" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
+    <row r="213" spans="1:5" ht="15">
+      <c r="A213" t="s">
         <v>116</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C212" t="s">
-        <v>451</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="C213" t="s">
+        <v>450</v>
+      </c>
+      <c r="D213" t="s">
         <v>661</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E213" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
+    <row r="214" spans="1:5" ht="15">
+      <c r="A214" t="s">
         <v>117</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C213" t="s">
-        <v>451</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="C214" t="s">
+        <v>450</v>
+      </c>
+      <c r="D214" t="s">
         <v>662</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E214" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
+    <row r="215" spans="1:5" ht="15">
+      <c r="A215" t="s">
         <v>118</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C214" t="s">
-        <v>451</v>
-      </c>
-      <c r="D214" t="s">
+      <c r="C215" t="s">
+        <v>450</v>
+      </c>
+      <c r="D215" t="s">
         <v>663</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E215" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
+    <row r="216" spans="1:5" ht="15">
+      <c r="A216" t="s">
         <v>119</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C215" t="s">
-        <v>451</v>
-      </c>
-      <c r="D215" t="s">
+      <c r="C216" t="s">
+        <v>450</v>
+      </c>
+      <c r="D216" t="s">
         <v>664</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E216" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
+    <row r="217" spans="1:5" ht="15">
+      <c r="A217" t="s">
         <v>120</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C216" t="s">
-        <v>451</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="C217" t="s">
+        <v>450</v>
+      </c>
+      <c r="D217" t="s">
         <v>665</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E217" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
+    <row r="218" spans="1:5" ht="15">
+      <c r="A218" t="s">
         <v>121</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C217" t="s">
-        <v>451</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="C218" t="s">
+        <v>450</v>
+      </c>
+      <c r="D218" t="s">
         <v>666</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E218" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
+    <row r="219" spans="1:5" ht="15">
+      <c r="A219" t="s">
         <v>122</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C218" t="s">
-        <v>451</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="C219" t="s">
+        <v>450</v>
+      </c>
+      <c r="D219" t="s">
         <v>667</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E219" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
+    <row r="220" spans="1:5" ht="15">
+      <c r="A220" t="s">
         <v>123</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C219" t="s">
-        <v>451</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="C220" t="s">
+        <v>450</v>
+      </c>
+      <c r="D220" t="s">
         <v>668</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E220" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
+    <row r="221" spans="1:5" ht="15">
+      <c r="A221" t="s">
         <v>124</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B221" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C220" t="s">
-        <v>451</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="C221" t="s">
+        <v>450</v>
+      </c>
+      <c r="D221" t="s">
         <v>669</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E221" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
+    <row r="222" spans="1:5" ht="15">
+      <c r="A222" t="s">
         <v>125</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B222" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C221" t="s">
-        <v>451</v>
-      </c>
-      <c r="D221" t="s">
+      <c r="C222" t="s">
+        <v>450</v>
+      </c>
+      <c r="D222" t="s">
         <v>670</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E222" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
+    <row r="223" spans="1:5" ht="15">
+      <c r="A223" t="s">
         <v>126</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B223" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C222" t="s">
-        <v>451</v>
-      </c>
-      <c r="D222" t="s">
+      <c r="C223" t="s">
+        <v>450</v>
+      </c>
+      <c r="D223" t="s">
         <v>671</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E223" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
+    <row r="224" spans="1:5" ht="15">
+      <c r="A224" t="s">
         <v>127</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C223" t="s">
-        <v>451</v>
-      </c>
-      <c r="D223" t="s">
+      <c r="C224" t="s">
+        <v>450</v>
+      </c>
+      <c r="D224" t="s">
         <v>672</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E224" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
+    <row r="225" spans="1:5" ht="15">
+      <c r="A225" t="s">
         <v>128</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C224" t="s">
-        <v>451</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="C225" t="s">
+        <v>450</v>
+      </c>
+      <c r="D225" t="s">
         <v>673</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E225" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
+    <row r="226" spans="1:5" ht="15">
+      <c r="A226" t="s">
         <v>129</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B226" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C225" t="s">
-        <v>451</v>
-      </c>
-      <c r="D225" t="s">
+      <c r="C226" t="s">
+        <v>450</v>
+      </c>
+      <c r="D226" t="s">
         <v>674</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E226" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
+    <row r="227" spans="1:5" ht="15">
+      <c r="A227" t="s">
         <v>130</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C226" t="s">
-        <v>451</v>
-      </c>
-      <c r="D226" t="s">
+      <c r="C227" t="s">
+        <v>450</v>
+      </c>
+      <c r="D227" t="s">
         <v>675</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E227" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
+    <row r="228" spans="1:5" ht="15">
+      <c r="A228" t="s">
         <v>131</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C227" t="s">
-        <v>451</v>
-      </c>
-      <c r="D227" t="s">
+      <c r="C228" t="s">
+        <v>450</v>
+      </c>
+      <c r="D228" t="s">
         <v>676</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E228" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
+    <row r="229" spans="1:5" ht="15">
+      <c r="A229" t="s">
         <v>132</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C228" t="s">
-        <v>451</v>
-      </c>
-      <c r="D228" t="s">
+      <c r="C229" t="s">
+        <v>450</v>
+      </c>
+      <c r="D229" t="s">
         <v>677</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E229" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" t="s">
+    <row r="230" spans="1:5" ht="15">
+      <c r="A230" t="s">
         <v>133</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C229" t="s">
-        <v>451</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="C230" t="s">
+        <v>450</v>
+      </c>
+      <c r="D230" t="s">
         <v>678</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E230" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
-      <c r="A230" t="s">
+    <row r="231" spans="1:5" ht="15">
+      <c r="A231" t="s">
         <v>134</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C230" t="s">
-        <v>451</v>
-      </c>
-      <c r="D230" t="s">
+      <c r="C231" t="s">
+        <v>450</v>
+      </c>
+      <c r="D231" t="s">
         <v>679</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E231" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
-      <c r="A231" t="s">
+    <row r="232" spans="1:5" ht="15">
+      <c r="A232" t="s">
         <v>135</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C231" t="s">
-        <v>451</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="C232" t="s">
+        <v>450</v>
+      </c>
+      <c r="D232" t="s">
         <v>680</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E232" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
-      <c r="A232" t="s">
+    <row r="233" spans="1:5" ht="15">
+      <c r="A233" t="s">
         <v>136</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B233" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C232" t="s">
-        <v>451</v>
-      </c>
-      <c r="D232" t="s">
+      <c r="C233" t="s">
+        <v>450</v>
+      </c>
+      <c r="D233" t="s">
         <v>681</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E233" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
-      <c r="A233" t="s">
+    <row r="234" spans="1:5" ht="15">
+      <c r="A234" t="s">
         <v>137</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B234" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C233" t="s">
-        <v>451</v>
-      </c>
-      <c r="D233" t="s">
+      <c r="C234" t="s">
+        <v>450</v>
+      </c>
+      <c r="D234" t="s">
         <v>682</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E234" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
-      <c r="A234" t="s">
+    <row r="235" spans="1:5" ht="15">
+      <c r="A235" t="s">
         <v>138</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B235" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C234" t="s">
-        <v>451</v>
-      </c>
-      <c r="D234" t="s">
+      <c r="C235" t="s">
+        <v>450</v>
+      </c>
+      <c r="D235" t="s">
         <v>683</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E235" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
-      <c r="A235" t="s">
+    <row r="236" spans="1:5" ht="15">
+      <c r="A236" t="s">
         <v>139</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C235" t="s">
-        <v>451</v>
-      </c>
-      <c r="D235" t="s">
+      <c r="C236" t="s">
+        <v>450</v>
+      </c>
+      <c r="D236" t="s">
         <v>684</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E236" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
-      <c r="A236" t="s">
+    <row r="237" spans="1:5" ht="15">
+      <c r="A237" t="s">
         <v>140</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B237" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C236" t="s">
-        <v>451</v>
-      </c>
-      <c r="D236" t="s">
+      <c r="C237" t="s">
+        <v>450</v>
+      </c>
+      <c r="D237" t="s">
         <v>685</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E237" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
-      <c r="A237" t="s">
+    <row r="238" spans="1:5" ht="15">
+      <c r="A238" t="s">
         <v>141</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C237" t="s">
-        <v>451</v>
-      </c>
-      <c r="D237" t="s">
+      <c r="C238" t="s">
+        <v>450</v>
+      </c>
+      <c r="D238" t="s">
         <v>686</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E238" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
-      <c r="A238" t="s">
+    <row r="239" spans="1:5" ht="15">
+      <c r="A239" t="s">
         <v>142</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C238" t="s">
-        <v>451</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="C239" t="s">
+        <v>450</v>
+      </c>
+      <c r="D239" t="s">
         <v>687</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E239" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
-      <c r="A239" t="s">
+    <row r="240" spans="1:5" ht="15">
+      <c r="A240" t="s">
         <v>143</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C239" t="s">
-        <v>451</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="C240" t="s">
+        <v>450</v>
+      </c>
+      <c r="D240" t="s">
         <v>688</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E240" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
-      <c r="A240" t="s">
+    <row r="241" spans="1:5" ht="15">
+      <c r="A241" t="s">
         <v>144</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C240" t="s">
-        <v>451</v>
-      </c>
-      <c r="D240" t="s">
+      <c r="C241" t="s">
+        <v>450</v>
+      </c>
+      <c r="D241" t="s">
         <v>689</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E241" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
-      <c r="A241" t="s">
+    <row r="242" spans="1:5" ht="15">
+      <c r="A242" t="s">
         <v>145</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C241" t="s">
-        <v>451</v>
-      </c>
-      <c r="D241" t="s">
+      <c r="C242" t="s">
+        <v>450</v>
+      </c>
+      <c r="D242" t="s">
         <v>690</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E242" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
-      <c r="A242" t="s">
+    <row r="243" spans="1:5" ht="15">
+      <c r="A243" t="s">
         <v>146</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C242" t="s">
-        <v>451</v>
-      </c>
-      <c r="D242" t="s">
+      <c r="C243" t="s">
+        <v>450</v>
+      </c>
+      <c r="D243" t="s">
         <v>691</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E243" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
-      <c r="A243" t="s">
+    <row r="244" spans="1:5" ht="15">
+      <c r="A244" t="s">
         <v>147</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C243" t="s">
-        <v>451</v>
-      </c>
-      <c r="D243" t="s">
+      <c r="C244" t="s">
+        <v>450</v>
+      </c>
+      <c r="D244" t="s">
         <v>692</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E244" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
-      <c r="A244" t="s">
+    <row r="245" spans="1:5" ht="15">
+      <c r="A245" t="s">
         <v>148</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B245" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C244" t="s">
-        <v>451</v>
-      </c>
-      <c r="D244" t="s">
+      <c r="C245" t="s">
+        <v>450</v>
+      </c>
+      <c r="D245" t="s">
         <v>693</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E245" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
-      <c r="A245" t="s">
+    <row r="246" spans="1:5" ht="15">
+      <c r="A246" t="s">
         <v>149</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C245" t="s">
-        <v>451</v>
-      </c>
-      <c r="D245" t="s">
+      <c r="C246" t="s">
+        <v>450</v>
+      </c>
+      <c r="D246" t="s">
         <v>694</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E246" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
-      <c r="A246" t="s">
+    <row r="247" spans="1:5" ht="15">
+      <c r="A247" t="s">
         <v>150</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C246" t="s">
-        <v>451</v>
-      </c>
-      <c r="D246" t="s">
+      <c r="C247" t="s">
+        <v>450</v>
+      </c>
+      <c r="D247" t="s">
         <v>695</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E247" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
-      <c r="A247" t="s">
+    <row r="248" spans="1:5" ht="15">
+      <c r="A248" t="s">
         <v>151</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B248" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C247" t="s">
-        <v>451</v>
-      </c>
-      <c r="D247" t="s">
+      <c r="C248" t="s">
+        <v>450</v>
+      </c>
+      <c r="D248" t="s">
         <v>696</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E248" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
-      <c r="A248" t="s">
+    <row r="249" spans="1:5" ht="15">
+      <c r="A249" t="s">
         <v>152</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B249" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C248" t="s">
-        <v>451</v>
-      </c>
-      <c r="D248" t="s">
+      <c r="C249" t="s">
+        <v>450</v>
+      </c>
+      <c r="D249" t="s">
         <v>697</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E249" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
-      <c r="A249" t="s">
+    <row r="250" spans="1:5" ht="15">
+      <c r="A250" t="s">
         <v>153</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B250" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C249" t="s">
-        <v>451</v>
-      </c>
-      <c r="D249" t="s">
+      <c r="C250" t="s">
+        <v>450</v>
+      </c>
+      <c r="D250" t="s">
         <v>698</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E250" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
-      <c r="A250" t="s">
+    <row r="251" spans="1:5" ht="15">
+      <c r="A251" t="s">
         <v>154</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B251" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C250" t="s">
-        <v>451</v>
-      </c>
-      <c r="D250" t="s">
+      <c r="C251" t="s">
+        <v>450</v>
+      </c>
+      <c r="D251" t="s">
         <v>699</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E251" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
-      <c r="A251" t="s">
+    <row r="252" spans="1:5" ht="15">
+      <c r="A252" t="s">
         <v>155</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B252" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C251" t="s">
-        <v>451</v>
-      </c>
-      <c r="D251" t="s">
+      <c r="C252" t="s">
+        <v>450</v>
+      </c>
+      <c r="D252" t="s">
         <v>700</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E252" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
-      <c r="A252" t="s">
+    <row r="253" spans="1:5" ht="15">
+      <c r="A253" t="s">
         <v>156</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B253" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C252" t="s">
-        <v>451</v>
-      </c>
-      <c r="D252" t="s">
+      <c r="C253" t="s">
+        <v>450</v>
+      </c>
+      <c r="D253" t="s">
         <v>701</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E253" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
-      <c r="A253" t="s">
+    <row r="254" spans="1:5" ht="15">
+      <c r="A254" t="s">
         <v>157</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B254" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C253" t="s">
-        <v>451</v>
-      </c>
-      <c r="D253" t="s">
+      <c r="C254" t="s">
+        <v>450</v>
+      </c>
+      <c r="D254" t="s">
         <v>702</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E254" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
-      <c r="A254" t="s">
+    <row r="255" spans="1:5" ht="15">
+      <c r="A255" t="s">
         <v>158</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B255" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C254" t="s">
-        <v>451</v>
-      </c>
-      <c r="D254" t="s">
+      <c r="C255" t="s">
+        <v>450</v>
+      </c>
+      <c r="D255" t="s">
         <v>703</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E255" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
-      <c r="A255" t="s">
+    <row r="256" spans="1:5" ht="15">
+      <c r="A256" t="s">
         <v>159</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B256" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C255" t="s">
-        <v>451</v>
-      </c>
-      <c r="D255" t="s">
+      <c r="C256" t="s">
+        <v>450</v>
+      </c>
+      <c r="D256" t="s">
         <v>704</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E256" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
-      <c r="A256" t="s">
+    <row r="257" spans="1:5" ht="15">
+      <c r="A257" t="s">
         <v>160</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B257" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C256" t="s">
-        <v>451</v>
-      </c>
-      <c r="D256" t="s">
+      <c r="C257" t="s">
+        <v>450</v>
+      </c>
+      <c r="D257" t="s">
         <v>705</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E257" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
-      <c r="A257" t="s">
+    <row r="258" spans="1:5" ht="15">
+      <c r="A258" t="s">
         <v>161</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B258" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C257" t="s">
-        <v>451</v>
-      </c>
-      <c r="D257" t="s">
+      <c r="C258" t="s">
+        <v>450</v>
+      </c>
+      <c r="D258" t="s">
         <v>706</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E258" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
-      <c r="A258" t="s">
+    <row r="259" spans="1:5" ht="15">
+      <c r="A259" t="s">
         <v>162</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B259" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C258" t="s">
-        <v>451</v>
-      </c>
-      <c r="D258" t="s">
+      <c r="C259" t="s">
+        <v>450</v>
+      </c>
+      <c r="D259" t="s">
         <v>707</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E259" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
-      <c r="A259" t="s">
+    <row r="260" spans="1:5" ht="15">
+      <c r="A260" t="s">
         <v>163</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C259" t="s">
-        <v>451</v>
-      </c>
-      <c r="D259" t="s">
+      <c r="C260" t="s">
+        <v>450</v>
+      </c>
+      <c r="D260" t="s">
         <v>708</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E260" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
-      <c r="A260" t="s">
+    <row r="261" spans="1:5" ht="15">
+      <c r="A261" t="s">
         <v>164</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B261" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C260" t="s">
-        <v>451</v>
-      </c>
-      <c r="D260" t="s">
+      <c r="C261" t="s">
+        <v>450</v>
+      </c>
+      <c r="D261" t="s">
         <v>709</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E261" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
-      <c r="A261" t="s">
+    <row r="262" spans="1:5" ht="15">
+      <c r="A262" t="s">
         <v>165</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B262" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C261" t="s">
-        <v>451</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="C262" t="s">
+        <v>450</v>
+      </c>
+      <c r="D262" t="s">
         <v>710</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E262" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
-      <c r="A262" t="s">
+    <row r="263" spans="1:5" ht="15">
+      <c r="A263" t="s">
         <v>166</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B263" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C262" t="s">
-        <v>451</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="C263" t="s">
+        <v>450</v>
+      </c>
+      <c r="D263" t="s">
         <v>711</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E263" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
-      <c r="A263" t="s">
+    <row r="264" spans="1:5" ht="15">
+      <c r="A264" t="s">
         <v>167</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B264" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C263" t="s">
-        <v>451</v>
-      </c>
-      <c r="D263" t="s">
+      <c r="C264" t="s">
+        <v>450</v>
+      </c>
+      <c r="D264" t="s">
         <v>712</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E264" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
-      <c r="A264" t="s">
+    <row r="265" spans="1:5" ht="15">
+      <c r="A265" t="s">
         <v>168</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B265" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C264" t="s">
-        <v>451</v>
-      </c>
-      <c r="D264" t="s">
+      <c r="C265" t="s">
+        <v>450</v>
+      </c>
+      <c r="D265" t="s">
         <v>713</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E265" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
-      <c r="A265" t="s">
+    <row r="266" spans="1:5" ht="15">
+      <c r="A266" t="s">
         <v>169</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B266" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C265" t="s">
-        <v>451</v>
-      </c>
-      <c r="D265" t="s">
+      <c r="C266" t="s">
+        <v>450</v>
+      </c>
+      <c r="D266" t="s">
         <v>714</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E266" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
-      <c r="A266" t="s">
+    <row r="267" spans="1:5" ht="15">
+      <c r="A267" t="s">
         <v>170</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B267" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C266" t="s">
-        <v>451</v>
-      </c>
-      <c r="D266" t="s">
+      <c r="C267" t="s">
+        <v>450</v>
+      </c>
+      <c r="D267" t="s">
         <v>715</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E267" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
-      <c r="A267" t="s">
+    <row r="268" spans="1:5" ht="15">
+      <c r="A268" t="s">
         <v>171</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B268" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C267" t="s">
-        <v>451</v>
-      </c>
-      <c r="D267" t="s">
+      <c r="C268" t="s">
+        <v>450</v>
+      </c>
+      <c r="D268" t="s">
         <v>716</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E268" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
-      <c r="A268" t="s">
+    <row r="269" spans="1:5" ht="15">
+      <c r="A269" t="s">
         <v>172</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B269" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C268" t="s">
-        <v>451</v>
-      </c>
-      <c r="D268" t="s">
+      <c r="C269" t="s">
+        <v>450</v>
+      </c>
+      <c r="D269" t="s">
         <v>717</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E269" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
-      <c r="A269" t="s">
+    <row r="270" spans="1:5" ht="15">
+      <c r="A270" t="s">
         <v>173</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B270" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C269" t="s">
-        <v>451</v>
-      </c>
-      <c r="D269" t="s">
+      <c r="C270" t="s">
+        <v>450</v>
+      </c>
+      <c r="D270" t="s">
         <v>718</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E270" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
-      <c r="A270" t="s">
+    <row r="271" spans="1:5" ht="15">
+      <c r="A271" t="s">
         <v>174</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B271" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C270" t="s">
-        <v>451</v>
-      </c>
-      <c r="D270" t="s">
+      <c r="C271" t="s">
+        <v>450</v>
+      </c>
+      <c r="D271" t="s">
         <v>719</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E271" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
-      <c r="A271" t="s">
+    <row r="272" spans="1:5" ht="15">
+      <c r="A272" t="s">
         <v>175</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B272" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C271" t="s">
-        <v>451</v>
-      </c>
-      <c r="D271" t="s">
+      <c r="C272" t="s">
+        <v>450</v>
+      </c>
+      <c r="D272" t="s">
         <v>720</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E272" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
-      <c r="A272" t="s">
+    <row r="273" spans="1:5" ht="15">
+      <c r="A273" t="s">
         <v>176</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B273" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C272" t="s">
-        <v>451</v>
-      </c>
-      <c r="D272" t="s">
+      <c r="C273" t="s">
+        <v>450</v>
+      </c>
+      <c r="D273" t="s">
         <v>721</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E273" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
-      <c r="A273" t="s">
-        <v>177</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C273" t="s">
-        <v>451</v>
-      </c>
-      <c r="D273" t="s">
-        <v>722</v>
-      </c>
-      <c r="E273" t="s">
-        <v>994</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
-    <hyperlink ref="B77" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78"/>
-    <hyperlink ref="B80" r:id="rId79"/>
-    <hyperlink ref="B81" r:id="rId80"/>
-    <hyperlink ref="B82" r:id="rId81"/>
-    <hyperlink ref="B83" r:id="rId82"/>
-    <hyperlink ref="B84" r:id="rId83"/>
-    <hyperlink ref="B85" r:id="rId84"/>
-    <hyperlink ref="B86" r:id="rId85"/>
-    <hyperlink ref="B87" r:id="rId86"/>
-    <hyperlink ref="B88" r:id="rId87"/>
-    <hyperlink ref="B89" r:id="rId88"/>
-    <hyperlink ref="B90" r:id="rId89"/>
-    <hyperlink ref="B91" r:id="rId90"/>
-    <hyperlink ref="B92" r:id="rId91"/>
-    <hyperlink ref="B93" r:id="rId92"/>
-    <hyperlink ref="B94" r:id="rId93"/>
-    <hyperlink ref="B95" r:id="rId94"/>
-    <hyperlink ref="B96" r:id="rId95"/>
-    <hyperlink ref="B97" r:id="rId96"/>
-    <hyperlink ref="B98" r:id="rId97"/>
-    <hyperlink ref="B99" r:id="rId98"/>
-    <hyperlink ref="B100" r:id="rId99"/>
-    <hyperlink ref="B101" r:id="rId100"/>
-    <hyperlink ref="B102" r:id="rId101"/>
-    <hyperlink ref="B103" r:id="rId102"/>
-    <hyperlink ref="B104" r:id="rId103"/>
-    <hyperlink ref="B105" r:id="rId104"/>
-    <hyperlink ref="B106" r:id="rId105"/>
-    <hyperlink ref="B107" r:id="rId106"/>
-    <hyperlink ref="B108" r:id="rId107"/>
-    <hyperlink ref="B109" r:id="rId108"/>
-    <hyperlink ref="B110" r:id="rId109"/>
-    <hyperlink ref="B111" r:id="rId110"/>
-    <hyperlink ref="B112" r:id="rId111"/>
-    <hyperlink ref="B113" r:id="rId112"/>
-    <hyperlink ref="B114" r:id="rId113"/>
-    <hyperlink ref="B115" r:id="rId114"/>
-    <hyperlink ref="B116" r:id="rId115"/>
-    <hyperlink ref="B117" r:id="rId116"/>
-    <hyperlink ref="B118" r:id="rId117"/>
-    <hyperlink ref="B119" r:id="rId118"/>
-    <hyperlink ref="B120" r:id="rId119"/>
-    <hyperlink ref="B121" r:id="rId120"/>
-    <hyperlink ref="B122" r:id="rId121"/>
-    <hyperlink ref="B123" r:id="rId122"/>
-    <hyperlink ref="B124" r:id="rId123"/>
-    <hyperlink ref="B125" r:id="rId124"/>
-    <hyperlink ref="B126" r:id="rId125"/>
-    <hyperlink ref="B127" r:id="rId126"/>
-    <hyperlink ref="B128" r:id="rId127"/>
-    <hyperlink ref="B129" r:id="rId128"/>
-    <hyperlink ref="B130" r:id="rId129"/>
-    <hyperlink ref="B131" r:id="rId130"/>
-    <hyperlink ref="B132" r:id="rId131"/>
-    <hyperlink ref="B133" r:id="rId132"/>
-    <hyperlink ref="B134" r:id="rId133"/>
-    <hyperlink ref="B135" r:id="rId134"/>
-    <hyperlink ref="B136" r:id="rId135"/>
-    <hyperlink ref="B137" r:id="rId136"/>
-    <hyperlink ref="B138" r:id="rId137"/>
-    <hyperlink ref="B139" r:id="rId138"/>
-    <hyperlink ref="B140" r:id="rId139"/>
-    <hyperlink ref="B141" r:id="rId140"/>
-    <hyperlink ref="B142" r:id="rId141"/>
-    <hyperlink ref="B143" r:id="rId142"/>
-    <hyperlink ref="B144" r:id="rId143"/>
-    <hyperlink ref="B145" r:id="rId144"/>
-    <hyperlink ref="B146" r:id="rId145"/>
-    <hyperlink ref="B147" r:id="rId146"/>
-    <hyperlink ref="B148" r:id="rId147"/>
-    <hyperlink ref="B149" r:id="rId148"/>
-    <hyperlink ref="B150" r:id="rId149"/>
-    <hyperlink ref="B151" r:id="rId150"/>
-    <hyperlink ref="B152" r:id="rId151"/>
-    <hyperlink ref="B153" r:id="rId152"/>
-    <hyperlink ref="B154" r:id="rId153"/>
-    <hyperlink ref="B155" r:id="rId154"/>
-    <hyperlink ref="B156" r:id="rId155"/>
-    <hyperlink ref="B157" r:id="rId156"/>
-    <hyperlink ref="B158" r:id="rId157"/>
-    <hyperlink ref="B159" r:id="rId158"/>
-    <hyperlink ref="B160" r:id="rId159"/>
-    <hyperlink ref="B161" r:id="rId160"/>
-    <hyperlink ref="B162" r:id="rId161"/>
-    <hyperlink ref="B163" r:id="rId162"/>
-    <hyperlink ref="B164" r:id="rId163"/>
-    <hyperlink ref="B165" r:id="rId164"/>
-    <hyperlink ref="B166" r:id="rId165"/>
-    <hyperlink ref="B167" r:id="rId166"/>
-    <hyperlink ref="B168" r:id="rId167"/>
-    <hyperlink ref="B169" r:id="rId168"/>
-    <hyperlink ref="B170" r:id="rId169"/>
-    <hyperlink ref="B171" r:id="rId170"/>
-    <hyperlink ref="B172" r:id="rId171"/>
-    <hyperlink ref="B173" r:id="rId172"/>
-    <hyperlink ref="B174" r:id="rId173"/>
-    <hyperlink ref="B175" r:id="rId174"/>
-    <hyperlink ref="B176" r:id="rId175"/>
-    <hyperlink ref="B177" r:id="rId176"/>
-    <hyperlink ref="B178" r:id="rId177"/>
-    <hyperlink ref="B179" r:id="rId178"/>
-    <hyperlink ref="B180" r:id="rId179"/>
-    <hyperlink ref="B181" r:id="rId180"/>
-    <hyperlink ref="B182" r:id="rId181"/>
-    <hyperlink ref="B183" r:id="rId182"/>
-    <hyperlink ref="B184" r:id="rId183"/>
-    <hyperlink ref="B185" r:id="rId184"/>
-    <hyperlink ref="B186" r:id="rId185"/>
-    <hyperlink ref="B187" r:id="rId186"/>
-    <hyperlink ref="B188" r:id="rId187"/>
-    <hyperlink ref="B189" r:id="rId188"/>
-    <hyperlink ref="B190" r:id="rId189"/>
-    <hyperlink ref="B191" r:id="rId190"/>
-    <hyperlink ref="B192" r:id="rId191"/>
-    <hyperlink ref="B193" r:id="rId192"/>
-    <hyperlink ref="B194" r:id="rId193"/>
-    <hyperlink ref="B195" r:id="rId194"/>
-    <hyperlink ref="B196" r:id="rId195"/>
-    <hyperlink ref="B197" r:id="rId196"/>
-    <hyperlink ref="B198" r:id="rId197"/>
-    <hyperlink ref="B199" r:id="rId198"/>
-    <hyperlink ref="B200" r:id="rId199"/>
-    <hyperlink ref="B201" r:id="rId200"/>
-    <hyperlink ref="B202" r:id="rId201"/>
-    <hyperlink ref="B203" r:id="rId202"/>
-    <hyperlink ref="B204" r:id="rId203"/>
-    <hyperlink ref="B205" r:id="rId204"/>
-    <hyperlink ref="B206" r:id="rId205"/>
-    <hyperlink ref="B207" r:id="rId206"/>
-    <hyperlink ref="B208" r:id="rId207"/>
-    <hyperlink ref="B209" r:id="rId208"/>
-    <hyperlink ref="B210" r:id="rId209"/>
-    <hyperlink ref="B211" r:id="rId210"/>
-    <hyperlink ref="B212" r:id="rId211"/>
-    <hyperlink ref="B213" r:id="rId212"/>
-    <hyperlink ref="B214" r:id="rId213"/>
-    <hyperlink ref="B215" r:id="rId214"/>
-    <hyperlink ref="B216" r:id="rId215"/>
-    <hyperlink ref="B217" r:id="rId216"/>
-    <hyperlink ref="B218" r:id="rId217"/>
-    <hyperlink ref="B219" r:id="rId218"/>
-    <hyperlink ref="B220" r:id="rId219"/>
-    <hyperlink ref="B221" r:id="rId220"/>
-    <hyperlink ref="B222" r:id="rId221"/>
-    <hyperlink ref="B223" r:id="rId222"/>
-    <hyperlink ref="B224" r:id="rId223"/>
-    <hyperlink ref="B225" r:id="rId224"/>
-    <hyperlink ref="B226" r:id="rId225"/>
-    <hyperlink ref="B227" r:id="rId226"/>
-    <hyperlink ref="B228" r:id="rId227"/>
-    <hyperlink ref="B229" r:id="rId228"/>
-    <hyperlink ref="B230" r:id="rId229"/>
-    <hyperlink ref="B231" r:id="rId230"/>
-    <hyperlink ref="B232" r:id="rId231"/>
-    <hyperlink ref="B233" r:id="rId232"/>
-    <hyperlink ref="B234" r:id="rId233"/>
-    <hyperlink ref="B235" r:id="rId234"/>
-    <hyperlink ref="B236" r:id="rId235"/>
-    <hyperlink ref="B237" r:id="rId236"/>
-    <hyperlink ref="B238" r:id="rId237"/>
-    <hyperlink ref="B239" r:id="rId238"/>
-    <hyperlink ref="B240" r:id="rId239"/>
-    <hyperlink ref="B241" r:id="rId240"/>
-    <hyperlink ref="B242" r:id="rId241"/>
-    <hyperlink ref="B243" r:id="rId242"/>
-    <hyperlink ref="B244" r:id="rId243"/>
-    <hyperlink ref="B245" r:id="rId244"/>
-    <hyperlink ref="B246" r:id="rId245"/>
-    <hyperlink ref="B247" r:id="rId246"/>
-    <hyperlink ref="B248" r:id="rId247"/>
-    <hyperlink ref="B249" r:id="rId248"/>
-    <hyperlink ref="B250" r:id="rId249"/>
-    <hyperlink ref="B251" r:id="rId250"/>
-    <hyperlink ref="B252" r:id="rId251"/>
-    <hyperlink ref="B253" r:id="rId252"/>
-    <hyperlink ref="B254" r:id="rId253"/>
-    <hyperlink ref="B255" r:id="rId254"/>
-    <hyperlink ref="B256" r:id="rId255"/>
-    <hyperlink ref="B257" r:id="rId256"/>
-    <hyperlink ref="B258" r:id="rId257"/>
-    <hyperlink ref="B259" r:id="rId258"/>
-    <hyperlink ref="B260" r:id="rId259"/>
-    <hyperlink ref="B261" r:id="rId260"/>
-    <hyperlink ref="B262" r:id="rId261"/>
-    <hyperlink ref="B263" r:id="rId262"/>
-    <hyperlink ref="B264" r:id="rId263"/>
-    <hyperlink ref="B265" r:id="rId264"/>
-    <hyperlink ref="B266" r:id="rId265"/>
-    <hyperlink ref="B267" r:id="rId266"/>
-    <hyperlink ref="B268" r:id="rId267"/>
-    <hyperlink ref="B269" r:id="rId268"/>
-    <hyperlink ref="B270" r:id="rId269"/>
-    <hyperlink ref="B271" r:id="rId270"/>
-    <hyperlink ref="B272" r:id="rId271"/>
-    <hyperlink ref="B273" r:id="rId272"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B249" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B250" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B251" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B252" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B253" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B254" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B255" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B256" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B257" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B258" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B259" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B260" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B261" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B262" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B263" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B264" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B265" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B266" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B267" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B268" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B269" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B270" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B271" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B272" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B273" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
